--- a/Assets/Excels/DropRecipeTable.xlsx
+++ b/Assets/Excels/DropRecipeTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SebamoClient\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SebamoBot\SebamoGameClient\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3709B8DB-DC09-43C4-A00D-E1212EC2006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513C475C-9E95-4317-8057-937C68A5D134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C55BBCD9-AFB1-4FE5-83C0-49484F1B35F9}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{C55BBCD9-AFB1-4FE5-83C0-49484F1B35F9}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    확률의 합은 100.
+각 확률은 정수.
+원하는 드롭 확률을 게재
+소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +86,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,6 +131,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="유지현" id="{892870CC-58E4-4FCB-B132-6274F7AFF91F}" userId="S::C011128@mail.hongik.ac.kr::eee9a582-c747-4bd0-8e73-515c3b4ae647" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,12 +400,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2024-06-22T16:25:18.61" personId="{892870CC-58E4-4FCB-B132-6274F7AFF91F}" id="{C55BBCD9-AFB1-4FE5-83C0-49484F1B35F9}">
+    <text>확률의 합은 100.
+각 확률은 정수.
+원하는 드롭 확률을 게재
+소수점 확률이 필요하다면 확률 합 1000 등으로 변경 요청</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -408,5 +452,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>